--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8731903880868824</v>
+        <v>0.8722624529955464</v>
       </c>
       <c r="E2">
-        <v>0.8731903880868824</v>
+        <v>0.8722624529955464</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2536053589239824</v>
+        <v>0.2526408452775347</v>
       </c>
       <c r="E3">
-        <v>0.2536053589239824</v>
+        <v>0.2526408452775347</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0001479781575183126</v>
+        <v>0.0001484038399906608</v>
       </c>
       <c r="E4">
-        <v>0.0001479781575183126</v>
+        <v>0.0001484038399906608</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.994456404483899E-05</v>
+        <v>5.014400608294908E-05</v>
       </c>
       <c r="E5">
-        <v>4.994456404483899E-05</v>
+        <v>5.014400608294908E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.94128752489137</v>
+        <v>0.9415323349564944</v>
       </c>
       <c r="E6">
-        <v>0.94128752489137</v>
+        <v>0.9415323349564944</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9989799670083657</v>
+        <v>0.0005842360999113275</v>
       </c>
       <c r="E7">
-        <v>0.001020032991634334</v>
+        <v>0.9994157639000887</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9988350628909296</v>
+        <v>0.9999999999748757</v>
       </c>
       <c r="E8">
-        <v>0.001164937109070396</v>
+        <v>2.512434704726729E-11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9989045835242935</v>
+        <v>0.09413175930088773</v>
       </c>
       <c r="E9">
-        <v>0.001095416475706545</v>
+        <v>0.9058682406991123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9987424590807183</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.001257540919281652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9990087846172785</v>
+        <v>0.9731200233041496</v>
       </c>
       <c r="E11">
-        <v>0.0009912153827215109</v>
+        <v>0.0268799766958504</v>
       </c>
       <c r="F11">
-        <v>0.5198401808738708</v>
+        <v>1.502398133277893</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9368021215589889</v>
+        <v>0.9367828023877084</v>
       </c>
       <c r="E12">
-        <v>0.9368021215589889</v>
+        <v>0.9367828023877084</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.007514173521991986</v>
+        <v>0.007511059640586045</v>
       </c>
       <c r="E13">
-        <v>0.007514173521991986</v>
+        <v>0.007511059640586045</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.369825377569713E-06</v>
+        <v>1.370157685433548E-06</v>
       </c>
       <c r="E14">
-        <v>1.369825377569713E-06</v>
+        <v>1.370157685433548E-06</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.66554188549602E-06</v>
+        <v>1.669233506717687E-06</v>
       </c>
       <c r="E15">
-        <v>1.66554188549602E-06</v>
+        <v>1.669233506717687E-06</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.920554791580051</v>
+        <v>0.9204813022381296</v>
       </c>
       <c r="E16">
-        <v>0.920554791580051</v>
+        <v>0.9204813022381296</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9961987857513465</v>
+        <v>0.001348624106566025</v>
       </c>
       <c r="E17">
-        <v>0.003801214248653539</v>
+        <v>0.998651375893434</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9972122183815978</v>
+        <v>0.9999999999826328</v>
       </c>
       <c r="E18">
-        <v>0.002787781618402208</v>
+        <v>1.736721877421132E-11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9959181358111749</v>
+        <v>0.04161967433631775</v>
       </c>
       <c r="E19">
-        <v>0.004081864188825057</v>
+        <v>0.9583803256636823</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9972771053494001</v>
+        <v>1.107088636722107E-08</v>
       </c>
       <c r="E20">
-        <v>0.002722894650599939</v>
+        <v>0.9999999889291137</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9968134887279131</v>
+        <v>0.9922793240571101</v>
       </c>
       <c r="E21">
-        <v>0.003186511272086912</v>
+        <v>0.007720675942889943</v>
       </c>
       <c r="F21">
-        <v>0.5318326950073242</v>
+        <v>3.341503858566284</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
